--- a/formats/excel/SSR/2021/Formats SSRHA GME 21.xlsx
+++ b/formats/excel/SSR/2021/Formats SSRHA GME 21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/SSR/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB80EBD-885B-3742-AA4A-0F79645F61DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67CF149-50F8-E043-8B2C-3CFC8497E937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="27400" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
